--- a/biology/Biochimie/Transférase/Transférase.xlsx
+++ b/biology/Biochimie/Transférase/Transférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transf%C3%A9rase</t>
+          <t>Transférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, une transférase est une enzyme dont le rôle est de catalyser le transfert d'un groupe fonctionnel (par exemple un groupe éthyle ou phosphate) d'une molécule (appelée donneur) à une autre (appelée accepteur). Par exemple, une enzyme catalysant la réaction suivante sera une transférase:
 A–X + B → A + B–X
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transf%C3%A9rase</t>
+          <t>Transférase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom complet des transférases est de la forme « donneur:accepteur groupetransférase ». Cependant, il existe d'autres noms plus communs; bien souvent il est construit sous la forme « accepteur groupetransférase » ou « donneur groupetransférase ». Par exemple, une ADN méthyltransférase est une enzyme de type transférase qui catalyse la réaction de transfert d'un groupe méthyle sur de l'ADN (accepteur).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transf%C3%A9rase</t>
+          <t>Transférase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les transferases sont classées EC 2 dans la nomenclature EC. Elles peuvent ensuite être classées dans neuf sous-classes : 
 EC 2.1 qui regroupe les enzymes transférant un groupe à un carbone (méthyltransférase)
